--- a/data/long_dif/P23_7-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_7-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 27,28</t>
+          <t>9,8; 25,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 24,14</t>
+          <t>9,6; 23,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,93; 24,13</t>
+          <t>11,08; 34,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 11,46</t>
+          <t>9,66; 23,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 23,02</t>
+          <t>2,37; 10,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,89</t>
+          <t>12,49; 31,76</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 21,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 16,05</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13,61; 27,83</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>71,86%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,83%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,61%</t>
+          <t>59,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,23%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,82%</t>
+          <t>62,86%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>73,86%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>77,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61,39%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,28; 80,69</t>
+          <t>64,04; 82,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>61,75; 82,25</t>
+          <t>62,72; 81,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,37; 80,87</t>
+          <t>45,66; 72,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,15; 86,54</t>
+          <t>64,67; 81,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,11; 78,31</t>
+          <t>72,68; 87,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,67; 82,74</t>
+          <t>51,57; 72,66</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>67,58; 79,86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>70,71; 82,96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>52,71; 69,85</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,46%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 18,25</t>
+          <t>4,53; 16,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 21,1</t>
+          <t>5,76; 20,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 19,64</t>
+          <t>10,47; 32,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 19,96</t>
+          <t>5,99; 17,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 16,35</t>
+          <t>8,48; 20,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 18,21</t>
+          <t>10,44; 27,33</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 15,43</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8,37; 17,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 26,18</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 34,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 19,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,31; 24,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 14,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,62; 28,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 15,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64,08%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,06%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>75,86%</t>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48,97; 74,91</t>
+          <t>8,92; 38,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,27; 78,9</t>
+          <t>5,23; 21,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>62,12; 79,06</t>
+          <t>4,83; 18,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,1; 87,53</t>
+          <t>11,13; 25,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,06; 74,5</t>
+          <t>5,51; 14,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,07; 81,26</t>
+          <t>4,88; 15,96</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 29,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 16,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 14,26</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>68,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>72,62%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>75,11%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>70,62%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,54; 31,03</t>
+          <t>46,15; 73,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,85; 36,83</t>
+          <t>50,18; 77,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 17,44</t>
+          <t>51,84; 81,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,41</t>
+          <t>63,14; 78,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 23,29</t>
+          <t>76,0; 87,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 27,1</t>
+          <t>64,03; 79,91</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>56,11; 73,43</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>65,12; 80,97</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>60,68; 77,9</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,72%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 24,21</t>
+          <t>12,15; 37,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,34; 27,06</t>
+          <t>12,24; 40,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,31</t>
+          <t>11,08; 41,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 13,95</t>
+          <t>6,55; 17,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,34; 22,37</t>
+          <t>4,96; 13,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,43; 19,17</t>
+          <t>12,75; 26,16</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 25,05</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10,04; 26,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>13,8; 31,78</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>71,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>63,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>52,27; 70,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>59,65; 75,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>58,97; 71,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>66,55; 76,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>58,08; 68,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,93; 74,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>17,77%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,57; 31,54</t>
+          <t>11,58; 23,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,23; 20,43</t>
+          <t>11,91; 27,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,01; 21,75</t>
+          <t>14,21; 31,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,87; 23,16</t>
+          <t>14,11; 24,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,91; 23,46</t>
+          <t>7,36; 14,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,67</t>
+          <t>11,82; 22,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 22,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 19,14</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 24,61</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>68,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>56,26%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>65,01%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>67,13%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>64,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>69,81%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61,96%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>12,91; 23,85</t>
+          <t>54,01; 71,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,39; 25,57</t>
+          <t>59,47; 76,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>12,13; 21,96</t>
+          <t>47,23; 64,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,87; 25,95</t>
+          <t>58,05; 71,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,24; 21,38</t>
+          <t>65,21; 75,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>15,77; 23,93</t>
+          <t>61,25; 73,94</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>58,53; 69,08</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>64,71; 74,72</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>56,3; 66,99</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>65,26%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>60,91%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>56,97%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>63,02%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>61,09%</t>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18,24%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>16,05%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>19,4%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>58,1; 71,94</t>
+          <t>13,18; 30,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>57,96; 71,32</t>
+          <t>8,95; 20,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>53,68; 67,44</t>
+          <t>17,29; 30,02</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>50,82; 62,47</t>
+          <t>11,76; 21,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>58,21; 67,64</t>
+          <t>14,33; 23,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>56,75; 65,85</t>
+          <t>11,72; 21,54</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 23,81</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 20,16</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15,67; 23,27</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +1859,104 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,28; 22,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,81; 22,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>17,43; 28,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,39; 26,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,86; 23,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,41; 22,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>17,35%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +1969,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>16,27; 30,14</t>
+          <t>13,75; 24,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>12,46; 24,0</t>
+          <t>11,91; 25,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>14,57; 28,36</t>
+          <t>14,72; 27,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>10,37; 20,42</t>
+          <t>12,26; 22,23</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,46; 26,6</t>
+          <t>16,44; 26,12</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,87; 20,52</t>
+          <t>13,62; 25,3</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 21,35</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>16,25; 24,24</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 23,63</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2017,52 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>58,51%</t>
+          <t>65,16%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>65,44%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>63,32%</t>
+          <t>60,16%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>56,67%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>59,54%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>62,6%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>60,94%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>55,77%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2075,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>49,21; 66,11</t>
+          <t>57,2; 71,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>55,74; 70,05</t>
+          <t>56,81; 71,37</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>53,69; 69,62</t>
+          <t>41,61; 59,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>56,15; 70,18</t>
+          <t>53,17; 66,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>54,22; 66,08</t>
+          <t>51,33; 62,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>58,11; 67,75</t>
+          <t>53,01; 66,72</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>57,29; 67,19</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>56,03; 64,55</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>49,25; 61,32</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2123,52 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>23,38%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>21,71%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2181,100 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>12,48; 29,22</t>
+          <t>11,83; 22,77</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>14,37; 26,14</t>
+          <t>12,95; 22,41</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>12,44; 24,92</t>
+          <t>20,12; 41,2</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>16,43; 27,92</t>
+          <t>17,95; 29,77</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>14,28; 24,4</t>
+          <t>17,76; 27,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,65; 24,77</t>
+          <t>16,8; 27,48</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 24,33</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 23,46</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 33,25</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2287,104 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>12,96; 35,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>12,47; 27,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18,89; 35,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>10,94; 22,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>17,78; 31,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>13,35; 22,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>62,65%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>63,48%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>58,91%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>60,51%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>21,66%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>16,48%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2397,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>50,01; 73,24</t>
+          <t>16,26; 30,7</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>53,94; 71,46</t>
+          <t>13,45; 24,98</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>49,43; 67,35</t>
+          <t>10,72; 27,5</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>53,15; 69,66</t>
+          <t>13,63; 27,43</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>53,6; 67,85</t>
+          <t>10,78; 20,22</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>55,9; 67,28</t>
+          <t>12,78; 26,89</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 26,68</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>13,17; 20,97</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 23,77</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2445,52 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>61,23%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>61,5%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>58,55%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>59,07%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>62,92%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>59,85%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +2503,100 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>9,62; 23,09</t>
+          <t>47,05; 64,17</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>12,21; 25,37</t>
+          <t>55,55; 68,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>9,95; 21,94</t>
+          <t>51,65; 69,73</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>16,05; 30,95</t>
+          <t>53,48; 69,36</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>11,31; 20,32</t>
+          <t>56,3; 69,65</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>15,91; 26,0</t>
+          <t>49,38; 66,76</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>53,19; 65,21</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>57,85; 67,6</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>52,91; 66,38</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>22,39%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +2609,47 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>15,82; 22,83</t>
+          <t>13,92; 31,7</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,23</t>
+          <t>14,36; 25,76</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>16,57; 22,21</t>
+          <t>15,21; 30,01</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,39</t>
+          <t>12,72; 25,45</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>16,94; 21,6</t>
+          <t>17,02; 28,16</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>12,91; 16,45</t>
+          <t>16,58; 31,23</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>14,72; 25,47</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>16,95; 25,02</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 27,81</t>
         </is>
       </c>
     </row>
@@ -2064,37 +2657,52 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>64,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>64,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>68,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>64,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +2715,104 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>60,09; 67,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>63,55; 70,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>61,51; 67,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>65,81; 71,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>61,4; 67,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>65,83; 70,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>18,95%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>23,44%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>17,45%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +2825,816 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>14,25; 20,57</t>
+          <t>12,44; 32,9</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,68</t>
+          <t>12,4; 26,43</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,47</t>
+          <t>8,21; 25,1</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>15,7; 20,1</t>
+          <t>18,31; 35,89</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>14,7; 18,85</t>
+          <t>10,84; 21,96</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>15,74; 19,46</t>
+          <t>11,5; 28,39</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>17,84; 31,2</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 22,48</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>11,82; 23,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>62,42%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>63,71%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>61,17%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>58,98%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>60,53%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>59,85%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>60,45%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>61,95%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>60,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>51,02; 73,14</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>54,71; 72,0</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>49,06; 71,91</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>49,25; 67,6</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>52,59; 68,5</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>50,31; 69,0</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>53,06; 67,2</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>56,12; 67,56</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>52,31; 67,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>23,49%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>21,2%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>16,11%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>10,68; 24,45</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>11,45; 24,02</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>14,93; 35,38</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 22,22</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 31,53</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 29,98</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>11,79; 20,8</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 26,15</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 28,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>13,27%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>15,94; 22,73</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 19,84</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 21,29</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 22,0</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 15,2</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 19,86</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 21,44</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 16,86</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 19,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>63,78%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>67,12%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>64,69%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>68,42%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>63,34%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>64,25%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>67,78%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>61,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>59,12; 67,53</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>63,23; 70,64</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>54,7; 64,29</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>61,43; 68,29</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>65,77; 70,87</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>60,04; 66,79</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>61,39; 66,7</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>65,29; 69,84</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>58,6; 64,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>18,32%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>19,53%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>14,38; 21,61</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 20,74</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 28,3</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 18,85</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 20,66</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 22,53</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 19,13</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>15,78; 19,49</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>19,0; 24,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
